--- a/2. Descuentos/0. Formato.xlsx
+++ b/2. Descuentos/0. Formato.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\2. Descuentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802D5020-1E62-40EE-AF53-00B975AC6D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A019979C-A07B-44CE-A8DF-CBD1B044672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{66B822A5-C23A-4837-8B6D-D5DF52A9F78C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Valor</t>
   </si>
@@ -79,12 +79,6 @@
     <t>Beto Garcia</t>
   </si>
   <si>
-    <t>Ines torres</t>
-  </si>
-  <si>
-    <t>Elvis</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -119,6 +113,27 @@
   </si>
   <si>
     <t>Tipo</t>
+  </si>
+  <si>
+    <t>Observación</t>
+  </si>
+  <si>
+    <t>Apoyo</t>
+  </si>
+  <si>
+    <t>Desayuno</t>
+  </si>
+  <si>
+    <t>Prestamo</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Ines Torres</t>
+  </si>
+  <si>
+    <t>Elvis Molina</t>
   </si>
 </sst>
 </file>
@@ -214,7 +229,54 @@
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -247,22 +309,6 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -279,22 +325,6 @@
         <scheme val="none"/>
       </font>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -361,14 +391,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}" name="Descuentos" displayName="Descuentos" ref="A1:E200" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:E200" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DEF36DE3-AB9E-4054-92CE-301AEC08F646}" name="Fecha" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{F736B774-8E22-4323-BA5E-C22234709F81}" name="Profesional" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{30440FD2-523E-49B2-A615-DF46C3E311FE}" name="Tipo" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{68A15CDA-658D-4B90-91AA-75B669ED03FB}" name="Concepto" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{7D0FD0DE-C5B3-4592-803C-0D87BF7BDB74}" name="Valor" dataDxfId="1" dataCellStyle="Moneda"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}" name="Descuentos" displayName="Descuentos" ref="A1:F200" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:F200" xr:uid="{487E98B7-1C88-44BC-8C1D-D443D72AC4A9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{DEF36DE3-AB9E-4054-92CE-301AEC08F646}" name="Fecha" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F736B774-8E22-4323-BA5E-C22234709F81}" name="Profesional" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{30440FD2-523E-49B2-A615-DF46C3E311FE}" name="Tipo" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{68A15CDA-658D-4B90-91AA-75B669ED03FB}" name="Concepto" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{7D0FD0DE-C5B3-4592-803C-0D87BF7BDB74}" name="Valor" dataDxfId="3" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{CA093F04-1CF0-437B-AE68-772AB2DAA16D}" name="Observación" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -385,8 +416,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2396CC4A-59DB-461E-AE99-73D9D22EF1B0}" name="Tabla_Fondo" displayName="Tabla_Fondo" ref="E1:E6" totalsRowShown="0">
-  <autoFilter ref="E1:E6" xr:uid="{2396CC4A-59DB-461E-AE99-73D9D22EF1B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2396CC4A-59DB-461E-AE99-73D9D22EF1B0}" name="Tabla_Fondo" displayName="Tabla_Fondo" ref="E1:E8" totalsRowShown="0">
+  <autoFilter ref="E1:E8" xr:uid="{2396CC4A-59DB-461E-AE99-73D9D22EF1B0}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{ABE18092-6574-4072-8A92-7C9CB834DFF5}" name="Fondo"/>
   </tableColumns>
@@ -395,8 +426,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05E57CB7-BA87-4245-BD8B-276813E4026E}" name="Tabla_Descuentos" displayName="Tabla_Descuentos" ref="G1:G2" totalsRowShown="0">
-  <autoFilter ref="G1:G2" xr:uid="{05E57CB7-BA87-4245-BD8B-276813E4026E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{05E57CB7-BA87-4245-BD8B-276813E4026E}" name="Tabla_Descuentos" displayName="Tabla_Descuentos" ref="G1:G5" totalsRowShown="0">
+  <autoFilter ref="G1:G5" xr:uid="{05E57CB7-BA87-4245-BD8B-276813E4026E}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{8B109D5C-FE66-4981-8367-CD316BA93394}" name="Descuentos"/>
   </tableColumns>
@@ -405,10 +436,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2C7A318E-AF14-423F-BAD6-5A01ED675E52}" name="Tabla_Opciones" displayName="Tabla_Opciones" ref="C1:C3" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="C1:C3" xr:uid="{2C7A318E-AF14-423F-BAD6-5A01ED675E52}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2C7A318E-AF14-423F-BAD6-5A01ED675E52}" name="Tabla_Opciones" displayName="Tabla_Opciones" ref="C1:C4" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="C1:C4" xr:uid="{2C7A318E-AF14-423F-BAD6-5A01ED675E52}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4E856376-E0CD-45C5-9126-2EF4C144CBA1}" name="Opciones" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{4E856376-E0CD-45C5-9126-2EF4C144CBA1}" name="Opciones" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -711,30 +742,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2F0063-6ECE-463C-AD9E-7727BD6F2067}">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="32.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="2"/>
+    <col min="6" max="6" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -742,80 +772,83 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
@@ -1771,7 +1804,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,92 +1825,110 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
